--- a/data/outputs/spending_summarised_gender.xlsx
+++ b/data/outputs/spending_summarised_gender.xlsx
@@ -488,13 +488,13 @@
         <v>51.2</v>
       </c>
       <c r="E2" t="n">
-        <v>130.63</v>
+        <v>130.66</v>
       </c>
       <c r="F2" t="n">
-        <v>83.61</v>
+        <v>83.62</v>
       </c>
       <c r="G2" t="n">
-        <v>152.89</v>
+        <v>153.07</v>
       </c>
     </row>
     <row r="3">
@@ -515,13 +515,13 @@
         <v>41.6</v>
       </c>
       <c r="E3" t="n">
-        <v>125.05</v>
+        <v>124.96</v>
       </c>
       <c r="F3" t="n">
-        <v>80.03</v>
+        <v>79.97</v>
       </c>
       <c r="G3" t="n">
-        <v>151.95</v>
+        <v>152.07</v>
       </c>
     </row>
     <row r="4">
@@ -542,13 +542,13 @@
         <v>36.5</v>
       </c>
       <c r="E4" t="n">
-        <v>87.15000000000001</v>
+        <v>87.17</v>
       </c>
       <c r="F4" t="n">
-        <v>63.62</v>
+        <v>63.63</v>
       </c>
       <c r="G4" t="n">
-        <v>162.76</v>
+        <v>162.62</v>
       </c>
     </row>
     <row r="5">
@@ -569,13 +569,13 @@
         <v>43.8</v>
       </c>
       <c r="E5" t="n">
-        <v>262.83</v>
+        <v>263.11</v>
       </c>
       <c r="F5" t="n">
-        <v>191.86</v>
+        <v>192.07</v>
       </c>
       <c r="G5" t="n">
-        <v>145.69</v>
+        <v>145.6</v>
       </c>
     </row>
     <row r="6">
@@ -596,13 +596,13 @@
         <v>42</v>
       </c>
       <c r="E6" t="n">
-        <v>80.16</v>
+        <v>80.27</v>
       </c>
       <c r="F6" t="n">
-        <v>84.17</v>
+        <v>84.29000000000001</v>
       </c>
       <c r="G6" t="n">
-        <v>126.35</v>
+        <v>126.42</v>
       </c>
     </row>
     <row r="7">
@@ -623,13 +623,13 @@
         <v>47.25</v>
       </c>
       <c r="E7" t="n">
-        <v>63.21</v>
+        <v>63.2</v>
       </c>
       <c r="F7" t="n">
-        <v>66.37</v>
+        <v>66.36</v>
       </c>
       <c r="G7" t="n">
-        <v>168.67</v>
+        <v>168.7</v>
       </c>
     </row>
     <row r="8">
@@ -650,13 +650,13 @@
         <v>52.5</v>
       </c>
       <c r="E8" t="n">
-        <v>78.37</v>
+        <v>78.36</v>
       </c>
       <c r="F8" t="n">
-        <v>82.29000000000001</v>
+        <v>82.28</v>
       </c>
       <c r="G8" t="n">
-        <v>180.78</v>
+        <v>181.21</v>
       </c>
     </row>
     <row r="9">
@@ -677,13 +677,13 @@
         <v>52.5</v>
       </c>
       <c r="E9" t="n">
-        <v>83.95</v>
+        <v>83.93000000000001</v>
       </c>
       <c r="F9" t="n">
-        <v>88.14</v>
+        <v>88.13</v>
       </c>
       <c r="G9" t="n">
-        <v>134.68</v>
+        <v>135.03</v>
       </c>
     </row>
     <row r="10">
@@ -698,19 +698,19 @@
         </is>
       </c>
       <c r="C10" t="n">
-        <v>7000</v>
+        <v>3500</v>
       </c>
       <c r="D10" t="n">
-        <v>46.9</v>
+        <v>23.45</v>
       </c>
       <c r="E10" t="n">
-        <v>10043.09</v>
+        <v>5570.42</v>
       </c>
       <c r="F10" t="n">
-        <v>67.29000000000001</v>
+        <v>37.32</v>
       </c>
       <c r="G10" t="n">
-        <v>129.31</v>
+        <v>108.13</v>
       </c>
     </row>
     <row r="11">
@@ -731,13 +731,13 @@
         <v>33.5</v>
       </c>
       <c r="E11" t="n">
-        <v>7196.36</v>
+        <v>7686.4</v>
       </c>
       <c r="F11" t="n">
-        <v>48.22</v>
+        <v>51.5</v>
       </c>
       <c r="G11" t="n">
-        <v>193.84</v>
+        <v>226.79</v>
       </c>
     </row>
     <row r="12">
@@ -758,13 +758,13 @@
         <v>135</v>
       </c>
       <c r="E12" t="n">
-        <v>813.71</v>
+        <v>819.8200000000001</v>
       </c>
       <c r="F12" t="n">
-        <v>219.7</v>
+        <v>221.35</v>
       </c>
       <c r="G12" t="n">
-        <v>146.93</v>
+        <v>141.6</v>
       </c>
     </row>
     <row r="13">
@@ -785,13 +785,13 @@
         <v>108</v>
       </c>
       <c r="E13" t="n">
-        <v>790.05</v>
+        <v>716.37</v>
       </c>
       <c r="F13" t="n">
-        <v>213.31</v>
+        <v>193.42</v>
       </c>
       <c r="G13" t="n">
-        <v>168.21</v>
+        <v>159.34</v>
       </c>
     </row>
     <row r="14">
@@ -806,19 +806,19 @@
         </is>
       </c>
       <c r="C14" t="n">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="D14" t="n">
-        <v>40.71</v>
+        <v>41.3</v>
       </c>
       <c r="E14" t="n">
-        <v>202.11</v>
+        <v>202.33</v>
       </c>
       <c r="F14" t="n">
-        <v>119.24</v>
+        <v>119.37</v>
       </c>
       <c r="G14" t="n">
-        <v>171.93</v>
+        <v>171.97</v>
       </c>
     </row>
     <row r="15">
@@ -839,13 +839,13 @@
         <v>35.4</v>
       </c>
       <c r="E15" t="n">
-        <v>117.11</v>
+        <v>117.16</v>
       </c>
       <c r="F15" t="n">
-        <v>69.09</v>
+        <v>69.12</v>
       </c>
       <c r="G15" t="n">
-        <v>146.96</v>
+        <v>147.07</v>
       </c>
     </row>
     <row r="16">
@@ -923,10 +923,10 @@
         <v>53.2</v>
       </c>
       <c r="F18" t="n">
-        <v>55.86</v>
+        <v>55.85</v>
       </c>
       <c r="G18" t="n">
-        <v>152.29</v>
+        <v>152.3</v>
       </c>
     </row>
     <row r="19">
@@ -947,13 +947,13 @@
         <v>47.25</v>
       </c>
       <c r="E19" t="n">
-        <v>58.44</v>
+        <v>58.42</v>
       </c>
       <c r="F19" t="n">
-        <v>61.36</v>
+        <v>61.34</v>
       </c>
       <c r="G19" t="n">
-        <v>158.11</v>
+        <v>158.08</v>
       </c>
     </row>
     <row r="20">
@@ -974,13 +974,13 @@
         <v>50</v>
       </c>
       <c r="E20" t="n">
-        <v>135.19</v>
+        <v>135.22</v>
       </c>
       <c r="F20" t="n">
-        <v>135.19</v>
+        <v>135.22</v>
       </c>
       <c r="G20" t="n">
-        <v>100.35</v>
+        <v>100.37</v>
       </c>
     </row>
     <row r="21">
@@ -1001,13 +1001,13 @@
         <v>65</v>
       </c>
       <c r="E21" t="n">
-        <v>118.68</v>
+        <v>118.67</v>
       </c>
       <c r="F21" t="n">
-        <v>118.68</v>
+        <v>118.67</v>
       </c>
       <c r="G21" t="n">
-        <v>147.86</v>
+        <v>147.93</v>
       </c>
     </row>
   </sheetData>
